--- a/data/excel/pig_Project_Expenses.xlsx
+++ b/data/excel/pig_Project_Expenses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makan\CasaDeFo\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB6A20-56B6-4B78-B96A-547943C66A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC5AB76-99CE-4359-999D-EA914F0305A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September Expenses" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC1837-EBDF-4DF2-B277-AC1866BF645F}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C5FD63-5B73-448A-9507-EC5645625BC9}">
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,8 +2150,8 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <f>36*4</f>
-        <v>144</v>
+        <f>36*5</f>
+        <v>180</v>
       </c>
       <c r="F21" s="4">
         <v>36</v>
@@ -2287,7 +2287,7 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f>SUM(E21:E28)</f>
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F29" s="2">
         <f>SUM(F21:F28)</f>

--- a/data/excel/pig_Project_Expenses.xlsx
+++ b/data/excel/pig_Project_Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makan\CasaDeFo\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC5AB76-99CE-4359-999D-EA914F0305A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03772C7B-3848-4E88-BAA3-C0B5E9889DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September Expenses" sheetId="1" r:id="rId1"/>
@@ -22,38 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>Total (kg)</t>
   </si>
   <si>
     <t>Grand Total (kg)</t>
   </si>
   <si>
-    <t>2 kgs / day</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>1kg / day</t>
-  </si>
-  <si>
-    <t>After Weaning (2kg/day)</t>
-  </si>
-  <si>
-    <t>With Piglets (5kg/day)</t>
-  </si>
-  <si>
-    <t>0.5kg/day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soya </t>
   </si>
   <si>
@@ -81,9 +60,6 @@
     <t>KGs Needed</t>
   </si>
   <si>
-    <t>October Expenses</t>
-  </si>
-  <si>
     <t>Cruches(20 kg)</t>
   </si>
   <si>
@@ -132,21 +108,6 @@
     <t>Hay</t>
   </si>
   <si>
-    <t>Pain Strip + Dhiba +Injections</t>
-  </si>
-  <si>
-    <t>September Expenses</t>
-  </si>
-  <si>
-    <t>0.5kg / day</t>
-  </si>
-  <si>
-    <t>Daily Consumption</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -165,12 +126,6 @@
     <t>6 bales</t>
   </si>
   <si>
-    <t>24*</t>
-  </si>
-  <si>
-    <t>12 buckets</t>
-  </si>
-  <si>
     <t>200kgs</t>
   </si>
   <si>
@@ -192,9 +147,6 @@
     <t>2 gilts</t>
   </si>
   <si>
-    <t>KGs/Day</t>
-  </si>
-  <si>
     <t># of Pigs</t>
   </si>
   <si>
@@ -210,9 +162,6 @@
     <t xml:space="preserve"> serviced 20/10/2025</t>
   </si>
   <si>
-    <t>15+15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> serviced 22/09/2025</t>
   </si>
   <si>
@@ -222,18 +171,12 @@
     <t>48 Kgs</t>
   </si>
   <si>
-    <t>1177kgs</t>
-  </si>
-  <si>
     <t>Limoxin</t>
   </si>
   <si>
     <t>Ivermectin</t>
   </si>
   <si>
-    <t>525kgs(36 buckets)</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
@@ -264,9 +207,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>Batch B (20)</t>
-  </si>
-  <si>
     <t>From A3 and A4</t>
   </si>
   <si>
@@ -288,20 +228,83 @@
     <t>Weaned 15 Oct- 20 weaners</t>
   </si>
   <si>
-    <t>5kg/day and 2kg/day</t>
-  </si>
-  <si>
-    <t>6 Sep- Weaned 15 Oct</t>
-  </si>
-  <si>
-    <t>10 Sep- Weaned 15 Oct</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>6 Sep- Weaned 15 Oct, Eat 5kgs / day for 11 days</t>
+  </si>
+  <si>
+    <t>10 Sep- Weaned 15 Oct, Eat 2kg/day for 6 days</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t># of pigs</t>
+  </si>
+  <si>
+    <t>Average Kgs/Day</t>
+  </si>
+  <si>
+    <t>Average KGs/Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch B </t>
+  </si>
+  <si>
+    <t>Injections</t>
+  </si>
+  <si>
+    <t>Pain Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhiba </t>
+  </si>
+  <si>
+    <t>240Kgs(12 buckets)</t>
+  </si>
+  <si>
+    <t>720kgs(36 buckets)</t>
+  </si>
+  <si>
+    <t>300kgs</t>
+  </si>
+  <si>
+    <t>Projected Expenses</t>
+  </si>
+  <si>
+    <t>Total Projected September Expenses</t>
+  </si>
+  <si>
+    <t>Total  Projected October Expenses</t>
+  </si>
+  <si>
+    <t>October Feed Calculation</t>
+  </si>
+  <si>
+    <t>September Feed Calculation</t>
+  </si>
+  <si>
+    <t>November Feed Calculations</t>
+  </si>
+  <si>
+    <t>From A1</t>
+  </si>
+  <si>
+    <t>From A2</t>
+  </si>
+  <si>
+    <t>Total Projected November Expenses</t>
+  </si>
+  <si>
+    <t>Expense Contribution per Individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +337,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -403,11 +413,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -418,16 +549,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,6 +570,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,15 +897,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -755,302 +913,324 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*E3*F3</f>
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G7" si="0">D4*E4*F4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <f>(E2*F2)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">(E3*F3)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="M6">
-        <f>0.5*20</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
+        <f>SUM(G3:G7)</f>
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
         <f>740/1000</f>
         <v>0.74</v>
       </c>
-      <c r="D12" s="4">
-        <f>G7*C12</f>
+      <c r="D11" s="4">
+        <f>G8*C11</f>
         <v>399.6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E11" s="4">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="4">
-        <f>E12*F12</f>
+      <c r="G11" s="4">
+        <f>E11*F11</f>
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="D13" s="4">
-        <f>G7*C13</f>
+      <c r="D12" s="4">
+        <f>G8*C12</f>
         <v>16.2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F12" s="4">
         <v>13</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" ref="G13:G14" si="1">E13*F13</f>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G13" si="1">E12*F12</f>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
         <f>330/1000</f>
         <v>0.33</v>
       </c>
-      <c r="D14" s="4">
-        <f>G7*C14</f>
+      <c r="D13" s="4">
+        <f>G8*C13</f>
         <v>178.20000000000002</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F13" s="4">
         <v>36</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10">
+        <f>SUM(G11:G15)</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="2">
-        <f>SUM(G12:G16)</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
         <f>36*4</f>
         <v>144</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
@@ -1065,10 +1245,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
@@ -1083,10 +1263,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
@@ -1102,7 +1282,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1110,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -1118,7 +1298,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1126,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -1134,7 +1314,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1142,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1150,17 +1330,15 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -1168,7 +1346,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1176,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -1184,33 +1362,92 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <v>200</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F31" s="6">
         <v>200</v>
       </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="2">
-        <f>SUM(E19:E28)</f>
-        <v>344</v>
-      </c>
-      <c r="F29" s="2">
-        <f>SUM(F19:F28)</f>
-        <v>377.5</v>
-      </c>
-      <c r="G29" s="2">
-        <f>SUM(G19:G28)</f>
-        <v>0</v>
-      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9">
+        <f>SUM(E19:E31)</f>
+        <v>347.5</v>
+      </c>
+      <c r="F32" s="9">
+        <f>SUM(F19:F31)</f>
+        <v>381</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(G19:G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1223,15 +1460,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC1837-EBDF-4DF2-B277-AC1866BF645F}">
-  <dimension ref="B1:M35"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1239,463 +1476,464 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*E3*F3</f>
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.42</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G9" si="0">D4*E4*F4</f>
+        <v>137.02000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G8" si="0">SUM(E2,F2)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3">
-        <v>125</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>62</v>
-      </c>
-      <c r="G4">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>62</v>
-      </c>
-      <c r="G5">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>620</v>
-      </c>
-      <c r="G6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="K6">
-        <f>124/31</f>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>65.100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
+        <f>SUM(G3:G9)</f>
+        <v>1143.28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f>SUM(G2:G8)</f>
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
         <f>740/1000</f>
         <v>0.74</v>
       </c>
-      <c r="D14" s="4">
-        <f>SUM(G2:G6)*C14</f>
-        <v>722.24</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D15" s="4">
+        <f>SUM(G3:G7)*C15</f>
+        <v>722.15120000000002</v>
+      </c>
+      <c r="E15" s="4">
         <v>36</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
-        <f>E14*F14</f>
+      <c r="G15" s="4">
+        <f>E15*F15</f>
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="D15" s="4">
-        <f>SUM(G2:G6)*C15</f>
-        <v>29.279999999999998</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D16" s="4">
+        <f>SUM(G3:G7)*C16</f>
+        <v>29.276399999999999</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>42</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:G18" si="1">E15*F15</f>
+      <c r="G16" s="4">
+        <f t="shared" ref="G16:G19" si="1">E16*F16</f>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
         <f>330/1000</f>
         <v>0.33</v>
       </c>
-      <c r="D16" s="4">
-        <f>SUM(G2:G6)*C16</f>
-        <v>322.08000000000004</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D17" s="4">
+        <f>SUM(G3:G7)*C17</f>
+        <v>322.04040000000003</v>
+      </c>
+      <c r="E17" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>36</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>165</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>32</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
       <c r="G19" s="4">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f>85*2</f>
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <v>30</v>
+        <f>85*2</f>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="2">
-        <f>SUM(G14:G22)</f>
-        <v>772</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>24</v>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10">
+        <f>SUM(G15:G23)</f>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
         <f>36*4</f>
         <v>144</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>42</v>
       </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>30</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <v>70</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f>8.5+9</f>
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -1703,17 +1941,15 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="4">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -1721,7 +1957,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1729,7 +1965,8 @@
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>60</v>
+        <f>8.5+9</f>
+        <v>17.5</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -1737,17 +1974,17 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>32</v>
+        <v>22.5</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -1755,39 +1992,78 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
         <v>6</v>
       </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="2">
-        <f>SUM(E25:E34)</f>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9">
+        <f>SUM(E27:E36)</f>
         <v>214</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" ref="F35:G35" si="2">SUM(F25:F34)</f>
+      <c r="F37" s="9">
+        <f t="shared" ref="F37:G37" si="2">SUM(F27:F36)</f>
         <v>282</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G37" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1795,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C5FD63-5B73-448A-9507-EC5645625BC9}">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,365 +2087,360 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*E3*F3</f>
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G8" si="0">D4*E4*F4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="G2">
-        <f>D2*E2*F2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">D3*E3*F3</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="4">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K5">
-        <f>1.5*15</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="4">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K6">
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="E8" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7">
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7">
-        <f>600+450</f>
-        <v>1050</v>
-      </c>
-      <c r="K7">
-        <f>K5*K6</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <f>SUM(G2:G7)</f>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14">
+        <f>SUM(G3:G8)</f>
         <v>1590</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K10">
-        <f>1176.6/20</f>
-        <v>58.83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
         <f>740/1000</f>
         <v>0.74</v>
       </c>
-      <c r="D13" s="4">
-        <f>G8*C13</f>
+      <c r="D12" s="4">
+        <f>G9*C12</f>
         <v>1176.5999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E12" s="4">
         <v>59</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4">
-        <f>E13*F13</f>
+      <c r="G12" s="4">
+        <f>E12*F12</f>
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
+      <c r="D13" s="4">
+        <f>G9*C13</f>
+        <v>47.699999999999996</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:G15" si="1">E13*F13</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <f>330/1000</f>
+        <v>0.33</v>
+      </c>
       <c r="D14" s="4">
-        <f>G8*C14</f>
-        <v>47.699999999999996</v>
+        <f>G9*C14</f>
+        <v>524.70000000000005</v>
       </c>
       <c r="E14" s="4">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" ref="G14:G16" si="1">E14*F14</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
-        <f>330/1000</f>
-        <v>0.33</v>
-      </c>
-      <c r="D15" s="4">
-        <f>G8*C15</f>
-        <v>524.70000000000005</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10">
+        <f>SUM(G12:G17)</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <f>36*3</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="2">
-        <f>SUM(G13:G18)</f>
-        <v>875</v>
-      </c>
-      <c r="M19">
-        <f>5*6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="F20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24">
         <f>36*5</f>
         <v>180</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="24">
         <v>36</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>18*20</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
@@ -2183,12 +2454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
@@ -2202,12 +2473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4">
@@ -2220,9 +2491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2236,9 +2507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2252,9 +2523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2268,33 +2539,54 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
         <v>10</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="2">
-        <f>SUM(E21:E28)</f>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9">
+        <f>SUM(E21:E29)</f>
         <v>180</v>
       </c>
-      <c r="F29" s="2">
-        <f>SUM(F21:F28)</f>
-        <v>264</v>
-      </c>
-      <c r="G29" s="2">
-        <f>SUM(G21:G28)</f>
+      <c r="F30" s="9">
+        <f>SUM(F21:F29)</f>
+        <v>267.5</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUM(G21:G29)</f>
         <v>150</v>
       </c>
     </row>
